--- a/resources/world-happiness-report-2021.xlsx
+++ b/resources/world-happiness-report-2021.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acbcb27dc46e4cd4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e159d63102df03d/DA Bootcamp/Project 3/Project3Group7/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF9024E-3BD2-4E06-888D-DBF3B44CA609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{8FF9024E-3BD2-4E06-888D-DBF3B44CA609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8975AE3F-A2F5-4192-A077-986E852E5EC7}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="world-happiness-report-2021" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v5.0" hidden="1">'world-happiness-report-2021'!$A$1</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">'world-happiness-report-2021'!$A$2:$A$150</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">'world-happiness-report-2021'!$C$1</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">'world-happiness-report-2021'!$C$2:$C$150</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">'world-happiness-report-2021'!$A$1</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">'world-happiness-report-2021'!$A$2:$A$150</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">'world-happiness-report-2021'!$C$1</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">'world-happiness-report-2021'!$C$2:$C$150</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -562,7 +572,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1100,6 +1110,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1416,14 +1430,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1547,7 +1585,7 @@
         <v>3.2530000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1609,7 +1647,7 @@
         <v>2.8679999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1671,7 +1709,7 @@
         <v>2.839</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1733,7 +1771,7 @@
         <v>2.9670000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1795,7 +1833,7 @@
         <v>2.798</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1857,7 +1895,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1919,7 +1957,7 @@
         <v>2.6829999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1981,7 +2019,7 @@
         <v>2.653</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2043,7 +2081,7 @@
         <v>2.6120000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2105,7 +2143,7 @@
         <v>2.7839999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2167,7 +2205,7 @@
         <v>2.5979999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2229,7 +2267,7 @@
         <v>3.0830000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2291,7 +2329,7 @@
         <v>2.8239999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2353,7 +2391,7 @@
         <v>2.585</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2415,7 +2453,7 @@
         <v>2.3839999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2477,7 +2515,7 @@
         <v>3.387</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2539,7 +2577,7 @@
         <v>2.5960000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2601,7 +2639,7 @@
         <v>3.1240000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2663,7 +2701,7 @@
         <v>2.8069999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2725,7 +2763,7 @@
         <v>2.8620000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2787,7 +2825,7 @@
         <v>2.5209999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2849,7 +2887,7 @@
         <v>2.6309999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2911,7 +2949,7 @@
         <v>2.2679999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2973,7 +3011,7 @@
         <v>2.6869999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -3035,7 +3073,7 @@
         <v>2.4220000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3097,7 +3135,7 @@
         <v>2.6680000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -3159,7 +3197,7 @@
         <v>2.5129999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3221,7 +3259,7 @@
         <v>2.794</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -3283,7 +3321,7 @@
         <v>2.3879999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -3345,7 +3383,7 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -3407,7 +3445,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3469,7 +3507,7 @@
         <v>1.379</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3531,7 +3569,7 @@
         <v>3.1819999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -3593,7 +3631,7 @@
         <v>2.714</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -3655,7 +3693,7 @@
         <v>3.0150000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3717,7 +3755,7 @@
         <v>2.9609999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3779,7 +3817,7 @@
         <v>3.1349999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -3841,7 +3879,7 @@
         <v>2.6240000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -3903,7 +3941,7 @@
         <v>2.5779999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -3965,7 +4003,7 @@
         <v>2.1030000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4027,7 +4065,7 @@
         <v>2.5089999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4089,7 +4127,7 @@
         <v>2.4769999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -4151,7 +4189,7 @@
         <v>2.6819999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -4213,7 +4251,7 @@
         <v>2.4380000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -4275,7 +4313,7 @@
         <v>2.4460000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -4337,7 +4375,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -4399,7 +4437,7 @@
         <v>2.3679999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -4461,7 +4499,7 @@
         <v>2.6819999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -4523,7 +4561,7 @@
         <v>3.085</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -4585,7 +4623,7 @@
         <v>2.4620000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -4647,7 +4685,7 @@
         <v>2.536</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -4709,7 +4747,7 @@
         <v>2.794</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -4771,7 +4809,7 @@
         <v>2.4319999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -4833,7 +4871,7 @@
         <v>2.3090000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -4895,7 +4933,7 @@
         <v>2.8410000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -4957,7 +4995,7 @@
         <v>2.048</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -5019,7 +5057,7 @@
         <v>2.4609999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
@@ -5081,7 +5119,7 @@
         <v>2.2250000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
@@ -5143,7 +5181,7 @@
         <v>2.9340000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -5205,7 +5243,7 @@
         <v>2.3250000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -5267,7 +5305,7 @@
         <v>2.8719999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -5329,7 +5367,7 @@
         <v>2.262</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -5391,7 +5429,7 @@
         <v>2.7440000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -5453,7 +5491,7 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>93</v>
       </c>
@@ -5515,7 +5553,7 @@
         <v>2.665</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -5577,7 +5615,7 @@
         <v>2.653</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -5639,7 +5677,7 @@
         <v>2.6480000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -5701,7 +5739,7 @@
         <v>2.5609999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>97</v>
       </c>
@@ -5763,7 +5801,7 @@
         <v>2.8050000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>98</v>
       </c>
@@ -5825,7 +5863,7 @@
         <v>2.492</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>99</v>
       </c>
@@ -5887,7 +5925,7 @@
         <v>2.306</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -5949,7 +5987,7 @@
         <v>2.254</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>101</v>
       </c>
@@ -6011,7 +6049,7 @@
         <v>2.1779999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>102</v>
       </c>
@@ -6073,7 +6111,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -6135,7 +6173,7 @@
         <v>2.2469999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -6197,7 +6235,7 @@
         <v>2.1480000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>105</v>
       </c>
@@ -6259,7 +6297,7 @@
         <v>1.236</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -6321,7 +6359,7 @@
         <v>2.6190000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -6383,7 +6421,7 @@
         <v>2.2109999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>108</v>
       </c>
@@ -6445,7 +6483,7 @@
         <v>2.331</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -6507,7 +6545,7 @@
         <v>1.784</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -6569,7 +6607,7 @@
         <v>1.9870000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -6631,7 +6669,7 @@
         <v>3.476</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -6693,7 +6731,7 @@
         <v>1.982</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>113</v>
       </c>
@@ -6755,7 +6793,7 @@
         <v>3.4689999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>114</v>
       </c>
@@ -6817,7 +6855,7 @@
         <v>2.1269999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>115</v>
       </c>
@@ -6879,7 +6917,7 @@
         <v>2.6419999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>117</v>
       </c>
@@ -6941,7 +6979,7 @@
         <v>1.823</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>118</v>
       </c>
@@ -7003,7 +7041,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -7065,7 +7103,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>120</v>
       </c>
@@ -7127,7 +7165,7 @@
         <v>3.1949999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>121</v>
       </c>
@@ -7189,7 +7227,7 @@
         <v>3.0710000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -7251,7 +7289,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>123</v>
       </c>
@@ -7313,7 +7351,7 @@
         <v>2.0419999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -7375,7 +7413,7 @@
         <v>2.6840000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>125</v>
       </c>
@@ -7437,7 +7475,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -7499,7 +7537,7 @@
         <v>1.409</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>127</v>
       </c>
@@ -7561,7 +7599,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>128</v>
       </c>
@@ -7623,7 +7661,7 @@
         <v>3.4820000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>129</v>
       </c>
@@ -7685,7 +7723,7 @@
         <v>2.2040000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>130</v>
       </c>
@@ -7747,7 +7785,7 @@
         <v>2.427</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>131</v>
       </c>
@@ -7809,7 +7847,7 @@
         <v>3.2160000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>132</v>
       </c>
@@ -7871,7 +7909,7 @@
         <v>2.1869999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>133</v>
       </c>
@@ -7933,7 +7971,7 @@
         <v>1.8520000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>134</v>
       </c>
@@ -7995,7 +8033,7 @@
         <v>2.7839999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>135</v>
       </c>
@@ -8057,7 +8095,7 @@
         <v>2.7490000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>136</v>
       </c>
@@ -8119,7 +8157,7 @@
         <v>2.1349999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>137</v>
       </c>
@@ -8181,7 +8219,7 @@
         <v>2.1909999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -8243,7 +8281,7 @@
         <v>2.242</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>139</v>
       </c>
@@ -8305,7 +8343,7 @@
         <v>1.8129999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>140</v>
       </c>
@@ -8367,7 +8405,7 @@
         <v>2.4289999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>141</v>
       </c>
@@ -8429,7 +8467,7 @@
         <v>2.2010000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>142</v>
       </c>
@@ -8491,7 +8529,7 @@
         <v>3.133</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>143</v>
       </c>
@@ -8553,7 +8591,7 @@
         <v>2.1480000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>144</v>
       </c>
@@ -8615,7 +8653,7 @@
         <v>2.7829999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>145</v>
       </c>
@@ -8677,7 +8715,7 @@
         <v>2.7360000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>146</v>
       </c>
@@ -8739,7 +8777,7 @@
         <v>3.016</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>147</v>
       </c>
@@ -8801,7 +8839,7 @@
         <v>1.823</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>148</v>
       </c>
@@ -8863,7 +8901,7 @@
         <v>2.5960000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>149</v>
       </c>
@@ -8925,7 +8963,7 @@
         <v>2.8570000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>150</v>
       </c>
@@ -8987,7 +9025,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>151</v>
       </c>
@@ -9049,7 +9087,7 @@
         <v>2.1379999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -9111,7 +9149,7 @@
         <v>1.736</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>153</v>
       </c>
@@ -9173,7 +9211,7 @@
         <v>2.0680000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>154</v>
       </c>
@@ -9235,7 +9273,7 @@
         <v>2.1309999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>155</v>
       </c>
@@ -9297,7 +9335,7 @@
         <v>1.407</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>156</v>
       </c>
@@ -9359,7 +9397,7 @@
         <v>1.5529999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>157</v>
       </c>
@@ -9421,7 +9459,7 @@
         <v>3.2090000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>158</v>
       </c>
@@ -9483,7 +9521,7 @@
         <v>1.075</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>159</v>
       </c>
@@ -9545,7 +9583,7 @@
         <v>2.1549999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>160</v>
       </c>
@@ -9607,7 +9645,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>161</v>
       </c>
@@ -9669,7 +9707,7 @@
         <v>1.6479999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>162</v>
       </c>
@@ -9731,7 +9769,7 @@
         <v>2.089</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>163</v>
       </c>
@@ -9793,7 +9831,7 @@
         <v>2.069</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>164</v>
       </c>
@@ -9855,7 +9893,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>165</v>
       </c>
@@ -9917,7 +9955,7 @@
         <v>2.806</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>166</v>
       </c>
@@ -9979,7 +10017,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>167</v>
       </c>
@@ -10041,7 +10079,7 @@
         <v>2.3959999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>168</v>
       </c>
@@ -10103,7 +10141,7 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>169</v>
       </c>
@@ -10165,7 +10203,7 @@
         <v>2.8759999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>170</v>
       </c>
@@ -10227,7 +10265,7 @@
         <v>1.776</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>171</v>
       </c>
@@ -10289,7 +10327,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>172</v>
       </c>
@@ -10351,7 +10389,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>173</v>
       </c>
@@ -10413,7 +10451,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>174</v>
       </c>
@@ -10475,7 +10513,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>175</v>
       </c>
@@ -10537,7 +10575,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>176</v>
       </c>
@@ -10599,7 +10637,7 @@
         <v>1.095</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>177</v>
       </c>
@@ -10661,7 +10699,7 @@
         <v>1.2050000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>178</v>
       </c>
